--- a/Day 6/예제/excel/학생시험성적.xlsx
+++ b/Day 6/예제/excel/학생시험성적.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2C2571-F50C-4B3C-96D0-F460A4C8FADD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC72F9-9E9D-40DB-B74B-7656B9A5EBE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="중간고사" sheetId="1" r:id="rId1"/>
+    <sheet name="기말고사" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>학생</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t>오동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,4 +533,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11BD935-6B4E-43EA-A883-8AF1C1AE3321}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3">
+        <v>90</v>
+      </c>
+      <c r="D2" s="3">
+        <v>85</v>
+      </c>
+      <c r="E2" s="4">
+        <f>AVERAGE(B2:D2)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3">
+        <v>95</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E6" si="0">AVERAGE(B3:D3)</f>
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>78.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3">
+        <v>85</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>